--- a/pred_ohlcv/54_21/2020-01-15 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 MXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1721071.674069876</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>1378717.951469876</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>1378717.951469876</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1378423.487369876</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5921429.918469879</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6166676.918469879</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>5949189.953082167</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>5949489.953082167</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>5671853.454882166</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>5672153.454882166</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>5653078.369982166</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>11340150.77768217</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>11907439.19598217</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>11916560.65158217</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>11740149.20328217</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>11800149.20328217</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>11825301.10328217</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>11776141.05828217</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>11776695.93958217</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>11736682.70618217</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>11940939.76228217</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>11941239.76228217</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>10025984.63368217</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>10012725.44678216</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>9732725.446782164</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>9785910.669682164</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>9845541.952882163</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>9836167.366782162</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>9857167.366782162</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 MXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 MXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>1721071.674069876</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -574,7 +574,7 @@
         <v>6398423.487369876</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -938,7 +938,7 @@
         <v>5921429.918469879</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>6166676.918469879</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>11907439.19598217</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>11916560.65158217</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>11980149.20328217</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>11740149.20328217</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>11800149.20328217</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>11825301.10328217</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>11776141.05828217</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>11776695.93958217</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>11736682.70618217</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>11940939.76228217</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>11941239.76228217</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>10025984.63368217</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>10025984.63368217</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>10027228.98658216</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>10012725.44678216</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>9732725.446782164</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>9785910.669682164</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>9845541.952882163</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>9836167.366782162</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>9857167.366782162</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
